--- a/Hypertrophy Program - Legs Push Pull.xlsx
+++ b/Hypertrophy Program - Legs Push Pull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoterzulli/File/Programmazione/Simple_Gym_Exercise_Sheet_Converter-XLSX_to_TXT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D20DF4-2F1C-3846-9DA6-5F8B0A771DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C03E4C-A3A1-E548-83C8-F66BC0BE7073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
